--- a/pred_ohlcv/54_21/2019-11-01 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 ZRX ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>-286440.1312256966</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-281635.8958256966</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-281635.8958256966</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-268597.3219256966</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-248336.0514256966</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-247281.8095256966</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-247573.8095256966</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-247221.2934256966</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-247221.2934256966</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-247035.1539256966</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-246963.9595256966</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-247263.9595256966</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-246668.9176256967</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-246668.9176256967</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-229015.5037256967</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-227483.6436256967</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-227483.6436256967</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-227483.6436256967</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-227483.6436256967</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-227483.6436256967</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-227483.6436256967</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-227483.6436256967</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-227879.9450256967</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-219069.1886256967</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-219069.1886256967</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-219070.6073256967</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-219070.6073256967</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-216974.2585256967</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-216974.2585256967</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-218696.1774256967</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-216581.6074256967</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-216581.6074256967</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-122951.1849600403</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-153660.6789600403</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-153660.6789600403</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-154642.7411600403</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-153010.3195600403</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-158067.5775600403</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-158067.5775600403</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-154535.5862600403</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-154535.5862600403</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-153202.1279600403</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-153897.3693600403</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-01 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 ZRX ohlcv.xlsx
@@ -730,7 +730,7 @@
         <v>-286440.1312256966</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-286440.1312256966</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-281427.1312256966</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-281644.8958256966</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-281644.8958256966</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-281635.8958256966</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-281635.8958256966</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-268597.3219256966</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-268597.3219256966</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-268597.3219256966</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-244549.6531256966</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-242041.7025256967</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-247257.3837256967</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-247257.3837256967</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-247387.3837256967</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-247387.3837256967</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-247461.3837256967</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-246668.9176256967</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-246668.9176256967</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-246668.9176256967</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-247204.7608256967</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-247202.7151256967</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-247198.7051256967</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-247198.7051256967</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-247198.7051256967</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-247198.7051256967</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-229015.5037256967</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-228025.7666256967</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-227483.6436256967</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-227483.6436256967</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-227483.6436256967</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-227483.6436256967</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-227483.6436256967</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-227483.6436256967</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-227483.6436256967</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-225832.0609256967</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-227879.9450256967</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-224611.7895256967</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-219069.1886256967</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-219069.1886256967</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-219070.6073256967</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-219070.6073256967</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-216974.2585256967</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-216974.2585256967</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-218696.1774256967</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-216581.6074256967</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-216581.6074256967</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-129156.9942085952</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-129156.9942085952</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-122951.1849600403</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-122951.1849600403</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-153660.6789600403</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-153660.6789600403</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-154642.7411600403</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-153010.3195600403</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-158067.5775600403</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-158067.5775600403</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-154535.5862600403</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-154535.5862600403</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-153202.1279600403</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-153897.3693600403</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
